--- a/Outputs/A2J_tables.xlsx
+++ b/Outputs/A2J_tables.xlsx
@@ -659,4 +659,270 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="579d0760968303502ff8eb3a8a5e610f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6855c386bbcb23a4cad2dada315b1779" ns2:_="" ns3:_="">
+    <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <xsd:import namespace="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="69276225-f05c-44c5-92dc-c999460a4149" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{32d65da7-472f-44c6-be22-218d2da46f49}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="69276225-f05c-44c5-92dc-c999460a4149">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="46f3a809-46a3-44ee-a0f1-42a271529c86" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="23" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{652EE699-2802-4777-BC65-CDE59765334F}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0A533F-1F81-4D9B-8759-89E1DAA3AA67}"/>
 </file>
--- a/Outputs/A2J_tables.xlsx
+++ b/Outputs/A2J_tables.xlsx
@@ -659,270 +659,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="579d0760968303502ff8eb3a8a5e610f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6855c386bbcb23a4cad2dada315b1779" ns2:_="" ns3:_="">
-    <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <xsd:import namespace="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="69276225-f05c-44c5-92dc-c999460a4149" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{32d65da7-472f-44c6-be22-218d2da46f49}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="69276225-f05c-44c5-92dc-c999460a4149">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="46f3a809-46a3-44ee-a0f1-42a271529c86" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="23" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{652EE699-2802-4777-BC65-CDE59765334F}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0A533F-1F81-4D9B-8759-89E1DAA3AA67}"/>
 </file>
--- a/Outputs/A2J_tables.xlsx
+++ b/Outputs/A2J_tables.xlsx
@@ -17,18 +17,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">country</t>
   </si>
   <si>
+    <t xml:space="preserve">fin_security</t>
+  </si>
+  <si>
     <t xml:space="preserve">legal_problem</t>
   </si>
   <si>
     <t xml:space="preserve">North Macedonia</t>
   </si>
   <si>
-    <t xml:space="preserve">36%</t>
+    <t xml:space="preserve">Financially Insecure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financially Secure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18%</t>
   </si>
   <si>
     <t xml:space="preserve">get_information</t>
@@ -52,7 +67,13 @@
     <t xml:space="preserve">source_help</t>
   </si>
   <si>
-    <t xml:space="preserve">20%</t>
+    <t xml:space="preserve">19%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25%</t>
   </si>
   <si>
     <t xml:space="preserve">fully_resolved</t>
@@ -61,46 +82,67 @@
     <t xml:space="preserve">problem_persist</t>
   </si>
   <si>
-    <t xml:space="preserve">49%</t>
+    <t xml:space="preserve">45%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">financial_difficulty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fin_security.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">any_hardship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fin_security.y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interpersonal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">economic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6%</t>
   </si>
   <si>
     <t xml:space="preserve">16%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">financial_difficulty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">any_hardship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interpersonal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">economic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drugs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6%</t>
   </si>
   <si>
     <t xml:space="preserve">2%</t>
@@ -442,13 +484,39 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -470,27 +538,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B2"/>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -512,15 +584,41 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -542,21 +640,53 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -578,27 +708,65 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="n">
-        <v>8.1875</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.44444444444445</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.10526315789474</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -620,39 +788,47 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B2"/>
       <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D2"/>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
